--- a/datos_pandas.xlsx
+++ b/datos_pandas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8033bbee49c93660/Documentos/Practicas Externas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{33F702DC-0445-453E-B9E4-50EED3EF0DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2879C554-0033-4C0A-A16B-9CF185380F84}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{33F702DC-0445-453E-B9E4-50EED3EF0DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39967304-13C3-4AB0-A712-340CA05CF88C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{69E1B172-EF44-4B25-AC84-57F05534660E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>PrimCR</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>NCMxA3</t>
+  </si>
+  <si>
+    <t>NCEl/NCMu</t>
+  </si>
+  <si>
+    <t>NCMu/NCMx</t>
+  </si>
+  <si>
+    <t>NCEl/NCMx</t>
   </si>
 </sst>
 </file>
@@ -522,15 +531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE6EAB5-2EE2-4B95-BD6A-202AD5DB6293}">
-  <dimension ref="A1:AO61"/>
+  <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,8 +663,17 @@
       <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -779,8 +797,17 @@
       <c r="AO2">
         <v>0</v>
       </c>
+      <c r="AP2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR2" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -904,8 +931,17 @@
       <c r="AO3">
         <v>0</v>
       </c>
+      <c r="AP3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR3" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1029,8 +1065,17 @@
       <c r="AO4">
         <v>0</v>
       </c>
+      <c r="AP4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR4" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1154,8 +1199,17 @@
       <c r="AO5">
         <v>0</v>
       </c>
+      <c r="AP5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR5" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1279,8 +1333,17 @@
       <c r="AO6">
         <v>0</v>
       </c>
+      <c r="AP6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR6" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1404,8 +1467,17 @@
       <c r="AO7">
         <v>0</v>
       </c>
+      <c r="AP7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR7" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1529,8 +1601,17 @@
       <c r="AO8">
         <v>0</v>
       </c>
+      <c r="AP8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ8">
+        <v>196.99999999999997</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1654,8 +1735,17 @@
       <c r="AO9">
         <v>0</v>
       </c>
+      <c r="AP9">
+        <v>592.66666666666663</v>
+      </c>
+      <c r="AQ9">
+        <v>136.76923076923077</v>
+      </c>
+      <c r="AR9">
+        <v>0.23076923076923078</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1779,8 +1869,17 @@
       <c r="AO10">
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="AP10">
+        <v>421.8888888888888</v>
+      </c>
+      <c r="AQ10">
+        <v>79.104166666666657</v>
+      </c>
+      <c r="AR10">
+        <v>0.1875</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1904,8 +2003,17 @@
       <c r="AO11">
         <v>6.666666666666667E-5</v>
       </c>
+      <c r="AP11">
+        <v>344.375</v>
+      </c>
+      <c r="AQ11">
+        <v>45.537190082644628</v>
+      </c>
+      <c r="AR11">
+        <v>0.13223140495867769</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2029,8 +2137,17 @@
       <c r="AO12">
         <v>2.4000000000000001E-4</v>
       </c>
+      <c r="AP12">
+        <v>124</v>
+      </c>
+      <c r="AQ12">
+        <v>37.686274509803923</v>
+      </c>
+      <c r="AR12">
+        <v>0.30392156862745096</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2154,8 +2271,17 @@
       <c r="AO13">
         <v>6.7500000000000004E-4</v>
       </c>
+      <c r="AP13">
+        <v>76.609271523178805</v>
+      </c>
+      <c r="AQ13">
+        <v>26.532110091743121</v>
+      </c>
+      <c r="AR13">
+        <v>0.34633027522935783</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2279,8 +2405,17 @@
       <c r="AO14">
         <v>3.4666666666666665E-3</v>
       </c>
+      <c r="AP14">
+        <v>64.113712374581937</v>
+      </c>
+      <c r="AQ14">
+        <v>17.96626054358013</v>
+      </c>
+      <c r="AR14">
+        <v>0.28022492970946578</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2404,8 +2539,17 @@
       <c r="AO15">
         <v>1.204E-2</v>
       </c>
+      <c r="AP15">
+        <v>51.279036827195469</v>
+      </c>
+      <c r="AQ15">
+        <v>13.008623787279914</v>
+      </c>
+      <c r="AR15">
+        <v>0.25368307581746319</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2529,8 +2673,17 @@
       <c r="AO16">
         <v>4.4338875692794932E-2</v>
       </c>
+      <c r="AP16">
+        <v>40.222748815165879</v>
+      </c>
+      <c r="AQ16">
+        <v>10.05568720379147</v>
+      </c>
+      <c r="AR16">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2654,8 +2807,17 @@
       <c r="AO17">
         <v>0.15013333333333334</v>
       </c>
+      <c r="AP17">
+        <v>31.944476244991417</v>
+      </c>
+      <c r="AQ17">
+        <v>7.0556925216511797</v>
+      </c>
+      <c r="AR17">
+        <v>0.22087363297300713</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2779,8 +2941,17 @@
       <c r="AO18">
         <v>0</v>
       </c>
+      <c r="AP18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR18" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2904,8 +3075,17 @@
       <c r="AO19">
         <v>0</v>
       </c>
+      <c r="AP19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR19" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4</v>
       </c>
@@ -3029,8 +3209,17 @@
       <c r="AO20">
         <v>0</v>
       </c>
+      <c r="AP20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR20" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3154,8 +3343,17 @@
       <c r="AO21">
         <v>0</v>
       </c>
+      <c r="AP21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR21" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3279,8 +3477,17 @@
       <c r="AO22">
         <v>0</v>
       </c>
+      <c r="AP22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR22" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4</v>
       </c>
@@ -3404,8 +3611,17 @@
       <c r="AO23">
         <v>0</v>
       </c>
+      <c r="AP23">
+        <v>538</v>
+      </c>
+      <c r="AQ23">
+        <v>403.5</v>
+      </c>
+      <c r="AR23">
+        <v>0.75000000000000011</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3529,8 +3745,17 @@
       <c r="AO24">
         <v>0</v>
       </c>
+      <c r="AP24">
+        <v>835</v>
+      </c>
+      <c r="AQ24">
+        <v>192.69230769230771</v>
+      </c>
+      <c r="AR24">
+        <v>0.23076923076923078</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
@@ -3654,8 +3879,17 @@
       <c r="AO25">
         <v>0</v>
       </c>
+      <c r="AP25">
+        <v>224.92307692307693</v>
+      </c>
+      <c r="AQ25">
+        <v>79.027027027027017</v>
+      </c>
+      <c r="AR25">
+        <v>0.35135135135135132</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3779,8 +4013,17 @@
       <c r="AO26">
         <v>5.9999999999999995E-4</v>
       </c>
+      <c r="AP26">
+        <v>87.925925925925924</v>
+      </c>
+      <c r="AQ26">
+        <v>40.237288135593218</v>
+      </c>
+      <c r="AR26">
+        <v>0.45762711864406785</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3904,8 +4147,17 @@
       <c r="AO27">
         <v>0.47389999999999999</v>
       </c>
+      <c r="AP27">
+        <v>25.099020346646569</v>
+      </c>
+      <c r="AQ27">
+        <v>5.3103316326530603</v>
+      </c>
+      <c r="AR27">
+        <v>0.21157525510204081</v>
+      </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4029,8 +4281,17 @@
       <c r="AO28">
         <v>1.4416666666666667</v>
       </c>
+      <c r="AP28">
+        <v>20.457057863928608</v>
+      </c>
+      <c r="AQ28">
+        <v>3.9795964083705133</v>
+      </c>
+      <c r="AR28">
+        <v>0.19453415221490042</v>
+      </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4154,8 +4415,17 @@
       <c r="AO29">
         <v>1.8E-3</v>
       </c>
+      <c r="AP29">
+        <v>59.621621621621614</v>
+      </c>
+      <c r="AQ29">
+        <v>31.514285714285712</v>
+      </c>
+      <c r="AR29">
+        <v>0.52857142857142858</v>
+      </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4279,8 +4549,17 @@
       <c r="AO30">
         <v>4.3750000000000004E-3</v>
       </c>
+      <c r="AP30">
+        <v>37.084656084656089</v>
+      </c>
+      <c r="AQ30">
+        <v>21.048048048048049</v>
+      </c>
+      <c r="AR30">
+        <v>0.56756756756756754</v>
+      </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4404,8 +4683,17 @@
       <c r="AO31">
         <v>1.4166666666666666E-2</v>
       </c>
+      <c r="AP31">
+        <v>23.693617021276594</v>
+      </c>
+      <c r="AQ31">
+        <v>13.336526946107785</v>
+      </c>
+      <c r="AR31">
+        <v>0.5628742514970061</v>
+      </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4529,8 +4817,17 @@
       <c r="AO32">
         <v>5.6250000000000001E-2</v>
       </c>
+      <c r="AP32">
+        <v>16.322580645161292</v>
+      </c>
+      <c r="AQ32">
+        <v>7.9763546798029568</v>
+      </c>
+      <c r="AR32">
+        <v>0.48866995073891628</v>
+      </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4654,8 +4951,17 @@
       <c r="AO33">
         <v>0.22550000000000001</v>
       </c>
+      <c r="AP33">
+        <v>12.983816587997302</v>
+      </c>
+      <c r="AQ33">
+        <v>5.5045740423098906</v>
+      </c>
+      <c r="AR33">
+        <v>0.42395654659805604</v>
+      </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4</v>
       </c>
@@ -4779,8 +5085,17 @@
       <c r="AO34">
         <v>0.77800000000000002</v>
       </c>
+      <c r="AP34">
+        <v>10.242822384428223</v>
+      </c>
+      <c r="AQ34">
+        <v>3.651804302567661</v>
+      </c>
+      <c r="AR34">
+        <v>0.3565232477446218</v>
+      </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4</v>
       </c>
@@ -4904,8 +5219,17 @@
       <c r="AO35">
         <v>2.8683333333333332</v>
       </c>
+      <c r="AP35">
+        <v>9.2248213125406107</v>
+      </c>
+      <c r="AQ35">
+        <v>2.5550256456402409</v>
+      </c>
+      <c r="AR35">
+        <v>0.27697291460451723</v>
+      </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>12</v>
       </c>
@@ -5029,8 +5353,17 @@
       <c r="AO36">
         <v>0</v>
       </c>
+      <c r="AP36" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ36" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR36" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>12</v>
       </c>
@@ -5154,8 +5487,17 @@
       <c r="AO37">
         <v>0</v>
       </c>
+      <c r="AP37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR37" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>12</v>
       </c>
@@ -5279,8 +5621,17 @@
       <c r="AO38">
         <v>0</v>
       </c>
+      <c r="AP38" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ38" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR38" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>12</v>
       </c>
@@ -5404,8 +5755,17 @@
       <c r="AO39">
         <v>0</v>
       </c>
+      <c r="AP39" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ39" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR39" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>12</v>
       </c>
@@ -5529,8 +5889,17 @@
       <c r="AO40">
         <v>0</v>
       </c>
+      <c r="AP40" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ40">
+        <v>1294</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>12</v>
       </c>
@@ -5654,8 +6023,17 @@
       <c r="AO41">
         <v>0</v>
       </c>
+      <c r="AP41">
+        <v>612.66666666666663</v>
+      </c>
+      <c r="AQ41">
+        <v>183.79999999999998</v>
+      </c>
+      <c r="AR41">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>12</v>
       </c>
@@ -5779,8 +6157,17 @@
       <c r="AO42">
         <v>0</v>
       </c>
+      <c r="AP42">
+        <v>429.75</v>
+      </c>
+      <c r="AQ42">
+        <v>107.4375</v>
+      </c>
+      <c r="AR42">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>12</v>
       </c>
@@ -5904,8 +6291,17 @@
       <c r="AO43">
         <v>2.0000000000000001E-4</v>
       </c>
+      <c r="AP43">
+        <v>83.318181818181813</v>
+      </c>
+      <c r="AQ43">
+        <v>63.206896551724142</v>
+      </c>
+      <c r="AR43">
+        <v>0.75862068965517249</v>
+      </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>12</v>
       </c>
@@ -6029,8 +6425,17 @@
       <c r="AO44">
         <v>1.5E-3</v>
       </c>
+      <c r="AP44">
+        <v>34.247126436781606</v>
+      </c>
+      <c r="AQ44">
+        <v>40.263513513513516</v>
+      </c>
+      <c r="AR44">
+        <v>1.1756756756756757</v>
+      </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>12</v>
       </c>
@@ -6154,8 +6559,17 @@
       <c r="AO45">
         <v>8.3333333333333332E-3</v>
       </c>
+      <c r="AP45">
+        <v>17.897540983606557</v>
+      </c>
+      <c r="AQ45">
+        <v>20.217592592592595</v>
+      </c>
+      <c r="AR45">
+        <v>1.1296296296296295</v>
+      </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>12</v>
       </c>
@@ -6279,8 +6693,17 @@
       <c r="AO46">
         <v>2.8750000000000001E-2</v>
       </c>
+      <c r="AP46">
+        <v>11.494559841740852</v>
+      </c>
+      <c r="AQ46">
+        <v>11.726538849646822</v>
+      </c>
+      <c r="AR46">
+        <v>1.0201816347124115</v>
+      </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>12</v>
       </c>
@@ -6404,8 +6827,17 @@
       <c r="AO47">
         <v>0.127</v>
       </c>
+      <c r="AP47">
+        <v>8.3550724637681153</v>
+      </c>
+      <c r="AQ47">
+        <v>6.500768836494105</v>
+      </c>
+      <c r="AR47">
+        <v>0.77806253203485387</v>
+      </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>12</v>
       </c>
@@ -6529,8 +6961,17 @@
       <c r="AO48">
         <v>0.504</v>
       </c>
+      <c r="AP48">
+        <v>5.9584608657630085</v>
+      </c>
+      <c r="AQ48">
+        <v>3.7313800657174152</v>
+      </c>
+      <c r="AR48">
+        <v>0.62623220153340631</v>
+      </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>12</v>
       </c>
@@ -6654,8 +7095,17 @@
       <c r="AO49">
         <v>1.7350000000000001</v>
       </c>
+      <c r="AP49">
+        <v>4.8542105263157893</v>
+      </c>
+      <c r="AQ49">
+        <v>2.4490175252257038</v>
+      </c>
+      <c r="AR49">
+        <v>0.50451407328730746</v>
+      </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>56</v>
       </c>
@@ -6779,8 +7229,17 @@
       <c r="AO50">
         <v>0</v>
       </c>
+      <c r="AP50" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ50" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR50" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>56</v>
       </c>
@@ -6904,8 +7363,17 @@
       <c r="AO51">
         <v>0</v>
       </c>
+      <c r="AP51" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ51" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR51" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>56</v>
       </c>
@@ -7029,8 +7497,17 @@
       <c r="AO52">
         <v>0</v>
       </c>
+      <c r="AP52" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ52" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR52" t="e">
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>56</v>
       </c>
@@ -7154,8 +7631,17 @@
       <c r="AO53">
         <v>0</v>
       </c>
+      <c r="AP53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ53">
+        <v>122.74999999999999</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>56</v>
       </c>
@@ -7279,8 +7765,17 @@
       <c r="AO54">
         <v>0</v>
       </c>
+      <c r="AP54">
+        <v>850</v>
+      </c>
+      <c r="AQ54">
+        <v>340</v>
+      </c>
+      <c r="AR54">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>56</v>
       </c>
@@ -7404,8 +7899,17 @@
       <c r="AO55">
         <v>1.25E-4</v>
       </c>
+      <c r="AP55">
+        <v>133.84615384615384</v>
+      </c>
+      <c r="AQ55">
+        <v>248.57142857142856</v>
+      </c>
+      <c r="AR55">
+        <v>1.857142857142857</v>
+      </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>56</v>
       </c>
@@ -7529,8 +8033,17 @@
       <c r="AO56">
         <v>1.5E-3</v>
       </c>
+      <c r="AP56">
+        <v>33.362637362637365</v>
+      </c>
+      <c r="AQ56">
+        <v>70.604651162790702</v>
+      </c>
+      <c r="AR56">
+        <v>2.1162790697674421</v>
+      </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7654,8 +8167,17 @@
       <c r="AO57">
         <v>9.75E-3</v>
       </c>
+      <c r="AP57">
+        <v>13.773940345368915</v>
+      </c>
+      <c r="AQ57">
+        <v>28.957095709570954</v>
+      </c>
+      <c r="AR57">
+        <v>2.1023102310231025</v>
+      </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -7779,8 +8301,17 @@
       <c r="AO58">
         <v>4.3999999999999997E-2</v>
       </c>
+      <c r="AP58">
+        <v>7.0929648241206031</v>
+      </c>
+      <c r="AQ58">
+        <v>14.044776119402984</v>
+      </c>
+      <c r="AR58">
+        <v>1.9800995024875623</v>
+      </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1</v>
       </c>
@@ -7904,8 +8435,17 @@
       <c r="AO59">
         <v>3.9626865671641789</v>
       </c>
+      <c r="AP59">
+        <v>14.83986928104575</v>
+      </c>
+      <c r="AQ59">
+        <v>2.8667929292929291</v>
+      </c>
+      <c r="AR59">
+        <v>0.19318181818181818</v>
+      </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1</v>
       </c>
@@ -8029,8 +8569,17 @@
       <c r="AO60">
         <v>11.157894736842104</v>
       </c>
+      <c r="AP60">
+        <v>13.272222222222224</v>
+      </c>
+      <c r="AQ60">
+        <v>2.5253699788583512</v>
+      </c>
+      <c r="AR60">
+        <v>0.19027484143763213</v>
+      </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1</v>
       </c>
@@ -8153,6 +8702,15 @@
       </c>
       <c r="AO61">
         <v>28.2</v>
+      </c>
+      <c r="AP61">
+        <v>7.9619377162629759</v>
+      </c>
+      <c r="AQ61">
+        <v>1.6613718411552345</v>
+      </c>
+      <c r="AR61">
+        <v>0.20866425992779783</v>
       </c>
     </row>
   </sheetData>
